--- a/Tables/Sources/gameplay/Facility/FacilityIsland.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityIsland.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -25,15 +25,6 @@
     <t>名称</t>
   </si>
   <si>
-    <t>资源产出（id）</t>
-  </si>
-  <si>
-    <t>产出速率（每秒产出数量）</t>
-  </si>
-  <si>
-    <t>存储上限</t>
-  </si>
-  <si>
     <t>升级资源（id|数量）</t>
   </si>
   <si>
@@ -43,6 +34,15 @@
     <t>升级时间（s）</t>
   </si>
   <si>
+    <t>资源产出（id|概率%）</t>
+  </si>
+  <si>
+    <t>产出速率（每秒产出数量，资源岛等级|数量）</t>
+  </si>
+  <si>
+    <t>存储上限 资源岛等级|数量</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -58,6 +58,15 @@
     <t>Name</t>
   </si>
   <si>
+    <t>UpgradeRes</t>
+  </si>
+  <si>
+    <t>UpgradeCost</t>
+  </si>
+  <si>
+    <t>UpgradeTime</t>
+  </si>
+  <si>
     <t>ResourceID</t>
   </si>
   <si>
@@ -67,36 +76,70 @@
     <t>StorageLimits</t>
   </si>
   <si>
-    <t>UpgradeRes</t>
-  </si>
-  <si>
-    <t>UpgradeCost</t>
-  </si>
-  <si>
-    <t>UpgradeTime</t>
-  </si>
-  <si>
-    <t>1001|300;1004|160</t>
-  </si>
-  <si>
-    <t>1001|500;1004|300</t>
-  </si>
-  <si>
-    <t>1001|1200;1004|800</t>
-  </si>
-  <si>
-    <t>1003|2000;1004|2000</t>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>1001|20;1002|10;1001|20;1002|10;1001|20</t>
+  </si>
+  <si>
+    <t>2500|10000|20000|30000|40000</t>
+  </si>
+  <si>
+    <t>60|120|240|360|480</t>
+  </si>
+  <si>
+    <t>1001|100</t>
+  </si>
+  <si>
+    <t>1|1000;2|2000;3|3000;4|4000;5|5000</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>1002|100</t>
+  </si>
+  <si>
+    <t>Iron Ore</t>
+  </si>
+  <si>
+    <t>1003|100</t>
+  </si>
+  <si>
+    <t>Saltpeter Mine</t>
+  </si>
+  <si>
+    <t>1006|100</t>
+  </si>
+  <si>
+    <t>Rubasse</t>
+  </si>
+  <si>
+    <t>1012|90;1013|10</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>1015|90;1016|10</t>
+  </si>
+  <si>
+    <t>Beast</t>
+  </si>
+  <si>
+    <t>1009|60;1021|10;1022|10;1023|10;1024|10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -114,6 +157,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -122,16 +196,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,30 +219,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,14 +248,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -198,54 +273,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,19 +316,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,163 +466,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,6 +525,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -501,7 +553,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,30 +569,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,15 +590,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -579,16 +598,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,142 +640,151 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1081,23 +1133,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="5.37962962962963" style="2" customWidth="1"/>
-    <col min="2" max="3" width="16.6666666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.6666666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.3796296296296" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.6296296296296" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.3796296296296" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.6666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.3333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.7777777777778" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.6666666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.4444444444444" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29.4444444444444" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.3796296296296" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
@@ -1121,7 +1174,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1162,22 +1215,22 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="12" spans="1:8">
@@ -1210,68 +1263,182 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
-        <v>101</v>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2500</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="2">
-        <v>102</v>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2">
-        <v>3600</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="D7" s="2">
-        <v>103</v>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="2">
-        <v>6000</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="D8" s="2">
-        <v>104</v>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="2">
-        <v>11000</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
+      <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityIsland.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityIsland.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -31,9 +31,6 @@
     <t>升级花费</t>
   </si>
   <si>
-    <t>升级时间（s）</t>
-  </si>
-  <si>
     <t>资源产出（id|概率%）</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>UpgradeCost</t>
   </si>
   <si>
-    <t>UpgradeTime</t>
-  </si>
-  <si>
     <t>ResourceID</t>
   </si>
   <si>
@@ -83,9 +77,6 @@
   </si>
   <si>
     <t>2500|10000|20000|30000|40000</t>
-  </si>
-  <si>
-    <t>60|120|240|360|480</t>
   </si>
   <si>
     <t>1001|100</t>
@@ -135,11 +126,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -157,6 +148,120 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -165,137 +270,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,49 +307,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,133 +487,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,30 +540,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -599,15 +566,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -622,16 +580,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,133 +631,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1133,29 +1124,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5.37962962962963" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.6666666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="37.3333333333333" style="2" customWidth="1"/>
     <col min="4" max="4" width="32.7777777777778" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.6666666666667" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.4444444444444" style="2" customWidth="1"/>
-    <col min="8" max="8" width="29.4444444444444" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.3796296296296" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="16.6666666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.4444444444444" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29.4444444444444" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.3796296296296" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,274 +1161,241 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:8">
-      <c r="A2" s="1" t="s">
+    <row r="3" s="1" customFormat="1" ht="12" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="12" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" s="1" customFormat="1" ht="12" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityIsland.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityIsland.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowHeight="18060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -106,19 +106,25 @@
     <t>Rubasse</t>
   </si>
   <si>
-    <t>1012|90;1013|10</t>
-  </si>
-  <si>
-    <t>Ruby</t>
-  </si>
-  <si>
-    <t>1015|90;1016|10</t>
+    <t>1012|100</t>
   </si>
   <si>
     <t>Beast</t>
   </si>
   <si>
-    <t>1009|60;1021|10;1022|10;1023|10;1024|10</t>
+    <t>1009|100</t>
+  </si>
+  <si>
+    <t>Copper Mine</t>
+  </si>
+  <si>
+    <t>1051|100</t>
+  </si>
+  <si>
+    <t>Flax</t>
+  </si>
+  <si>
+    <t>1047|100</t>
   </si>
 </sst>
 </file>
@@ -126,10 +132,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -149,6 +155,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -156,7 +169,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,6 +212,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -177,65 +244,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,9 +267,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,16 +283,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,13 +313,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,19 +457,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,145 +487,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,8 +525,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,43 +546,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,18 +581,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,10 +625,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,19 +637,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,116 +658,116 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -777,6 +783,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1124,15 +1133,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E$1:E$1048576"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.37962962962963" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.6666666666667" style="2" customWidth="1"/>
@@ -1142,7 +1151,10 @@
     <col min="6" max="6" width="23.4444444444444" style="2" customWidth="1"/>
     <col min="7" max="7" width="29.4444444444444" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.3796296296296" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="15.6666666666667" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="40.6666666666667" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="12" spans="1:7">
@@ -1306,7 +1318,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1328,8 +1340,9 @@
       <c r="G8" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1351,12 +1364,13 @@
       <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1397,6 +1411,35 @@
       <c r="G11" s="2" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="13:13">
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="13:13">
+      <c r="M15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
